--- a/Aufgaben/Aufgabenblatt1/Aufgabe1.xlsx
+++ b/Aufgaben/Aufgabenblatt1/Aufgabe1.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Documents\HS_RM\Workspaces\Softwaretesting\Aufgaben\Aufgabenblatt1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Documents\HS_RM\Workspaces\STesting\Aufgaben\Aufgabenblatt1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717F1570-0CAA-4B4D-B463-E158B63589DE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E932AEBF-62A5-451A-B020-53269830AA43}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fehlerbeschreibung" sheetId="1" r:id="rId1"/>
-    <sheet name="Fehlerlebenszyklus" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hilfstabelle" sheetId="4" r:id="rId2"/>
+    <sheet name="Fehlerlebenszyklus" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Priority">Fehlerbeschreibung!$C$45:$C$47</definedName>
-    <definedName name="Serverity">Fehlerbeschreibung!$B$45:$B$48</definedName>
+    <definedName name="Priority">Fehlerbeschreibung!$C$51:$C$53</definedName>
+    <definedName name="Serverity">Fehlerbeschreibung!$B$52:$B$55</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>ID:</t>
   </si>
@@ -92,12 +99,123 @@
   </si>
   <si>
     <t>Geschlossen</t>
+  </si>
+  <si>
+    <t>Produktiv</t>
+  </si>
+  <si>
+    <t>Analysieren</t>
+  </si>
+  <si>
+    <t>Vorbereiten</t>
+  </si>
+  <si>
+    <t>Testen</t>
+  </si>
+  <si>
+    <t>TL Ok</t>
+  </si>
+  <si>
+    <t>TL Abbruch</t>
+  </si>
+  <si>
+    <t>TL Abweichung</t>
+  </si>
+  <si>
+    <t>Warten</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Fehler</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Unterstützung</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>Tracker:</t>
+  </si>
+  <si>
+    <t>Tracker</t>
+  </si>
+  <si>
+    <t>Anforderung</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Kategorie:</t>
+  </si>
+  <si>
+    <t>Niedrig</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Hoch</t>
+  </si>
+  <si>
+    <t>Dringend</t>
+  </si>
+  <si>
+    <t>Sofort</t>
+  </si>
+  <si>
+    <t>Kunde</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>MacOS</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>Plattform:</t>
+  </si>
+  <si>
+    <t>Abgwiesen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -191,9 +309,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -203,6 +318,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -541,66 +661,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E45"/>
+  <dimension ref="B1:E52"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showFormulas="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
@@ -616,17 +743,23 @@
     </row>
     <row r="8" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="D9" s="8" t="s">
         <v>8</v>
       </c>
@@ -641,18 +774,18 @@
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
@@ -662,48 +795,12 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C12:E12"/>
@@ -723,11 +820,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Ungültiger Status" error="Wählen Sie einen Status aus der Liste aus." promptTitle="Status" prompt="Wählen Sie einen Status aus der Liste aus." sqref="C5" xr:uid="{5ED33D8D-2986-4306-AF63-6696BAE2DD2E}">
-      <formula1>$B$23:$B$29</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -750,30 +842,285 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ungültiger Status" error="Wählen Sie einen Status aus der Liste aus." promptTitle="Status" prompt="Wählen Sie einen Status aus der Liste aus." xr:uid="{5ED33D8D-2986-4306-AF63-6696BAE2DD2E}">
+          <x14:formula1>
+            <xm:f>Hilfstabelle!$A$3:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ungültiger Tracker" error="Bitte einen Tracker aus der Liste auswählen" promptTitle="Tracker eingeben" prompt="Bitte einen Tracker aus der Liste auswählen" xr:uid="{646B1F4B-661D-4979-8A2D-9455A1651FFB}">
+          <x14:formula1>
+            <xm:f>Hilfstabelle!$C$3:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Gültige Kategorie auswählen" error="Bitte eine gültige Kategorie aus der Liste auswählen" promptTitle="Kategorie eingeben" prompt="Bitte Kategorie aus der Liste auswählen" xr:uid="{86EFEA87-9090-495E-B277-E0B7127D55D1}">
+          <x14:formula1>
+            <xm:f>Hilfstabelle!$E$3:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Gültige Priorität auswählen" error="Bitte gültige Priorität aus der Liste auswählen" promptTitle="Priorität auswählen" prompt="Priorität aus der Liste auswählen" xr:uid="{CA7C5E37-B9BC-4141-AB29-AD89890FA29F}">
+          <x14:formula1>
+            <xm:f>Hilfstabelle!$G$3:$G$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ungültige Plattform" error="Bitte gültige Plattform aus der Liste auswählen" promptTitle="Plattform auswählen" prompt="Bitte Plattform auswählen" xr:uid="{C0C57CB1-BF79-48FE-B9F6-39523F7BBB60}">
+          <x14:formula1>
+            <xm:f>Hilfstabelle!$I$3:$I$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6097B94-F70E-43DD-B130-B41690572E02}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B8:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Aufgaben/Aufgabenblatt1/Aufgabe1.xlsx
+++ b/Aufgaben/Aufgabenblatt1/Aufgabe1.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Documents\HS_RM\Workspaces\STesting\Aufgaben\Aufgabenblatt1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E932AEBF-62A5-451A-B020-53269830AA43}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5204C4-183C-44F0-AB7B-7DE9D0B14EBD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fehlerbeschreibung" sheetId="1" r:id="rId1"/>
+    <sheet name="Fehlerbeschreibung(Aufgabe 1.1)" sheetId="1" r:id="rId1"/>
     <sheet name="Hilfstabelle" sheetId="4" r:id="rId2"/>
-    <sheet name="Fehlerlebenszyklus" sheetId="2" r:id="rId3"/>
+    <sheet name="Schwere_u_Prio (Aufgabe 1.2)" sheetId="5" r:id="rId3"/>
+    <sheet name="Fehlerlebenszyklus(Aufgabe 1.3)" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Priority">Fehlerbeschreibung!$C$51:$C$53</definedName>
-    <definedName name="Serverity">Fehlerbeschreibung!$B$52:$B$55</definedName>
+    <definedName name="Priority">'Fehlerbeschreibung(Aufgabe 1.1)'!$C$51:$C$53</definedName>
+    <definedName name="Serverity">'Fehlerbeschreibung(Aufgabe 1.1)'!$B$52:$B$55</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>ID:</t>
   </si>
@@ -74,9 +75,6 @@
     <t>Kategorie</t>
   </si>
   <si>
-    <t>Wann erstellt und von wem?</t>
-  </si>
-  <si>
     <t>Unteraufgaben:</t>
   </si>
   <si>
@@ -140,9 +138,6 @@
     <t>TL</t>
   </si>
   <si>
-    <t>Tracker:</t>
-  </si>
-  <si>
     <t>Tracker</t>
   </si>
   <si>
@@ -206,7 +201,34 @@
     <t>Plattform:</t>
   </si>
   <si>
-    <t>Abgwiesen</t>
+    <t>Fehlerschwere:</t>
+  </si>
+  <si>
+    <t>Fehlerschwere</t>
+  </si>
+  <si>
+    <t>Blocker</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Wann Ticket erstellt und von wem?</t>
+  </si>
+  <si>
+    <t>Zugewiesen an</t>
+  </si>
+  <si>
+    <t>BumbleBee</t>
+  </si>
+  <si>
+    <t>KarlJäger</t>
   </si>
 </sst>
 </file>
@@ -216,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +270,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,8 +291,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -289,23 +324,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,11 +376,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -338,6 +398,74 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>65932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>514474</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF8F803-F798-4876-8A81-8C70025D67FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="256432"/>
+          <a:ext cx="15678274" cy="5363318"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9882"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:reflection blurRad="12700" stA="38000" endPos="28000" dist="5000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -661,150 +789,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E52"/>
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="B1:F52"/>
   <sheetViews>
-    <sheetView showFormulas="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="18" t="s">
+    <row r="1" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="2:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="23">
+        <v>43407</v>
+      </c>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="23">
+        <v>43409</v>
+      </c>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="2:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B11:E11"/>
+  <mergeCells count="10">
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="E7">
     <cfRule type="dataBar" priority="1">
@@ -843,7 +996,7 @@
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ungültiger Status" error="Wählen Sie einen Status aus der Liste aus." promptTitle="Status" prompt="Wählen Sie einen Status aus der Liste aus." xr:uid="{5ED33D8D-2986-4306-AF63-6696BAE2DD2E}">
           <x14:formula1>
             <xm:f>Hilfstabelle!$A$3:$A$17</xm:f>
@@ -874,6 +1027,18 @@
           </x14:formula1>
           <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ungültige Fehlerschwere" error="Bitte gültige Fehlerschwere auswählen" promptTitle="Fehlerschwere auswählen" prompt="Schwere aus der Liste auswählen" xr:uid="{8FEAE253-12AD-40D6-86CB-F5B43668FFC1}">
+          <x14:formula1>
+            <xm:f>Hilfstabelle!$K$3:$K$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Eingabe" error="Bitte gültigen Wert auswählen" promptTitle="Zugewiesen an auswählen" prompt="Bitte Wert aus der Liste auswählen" xr:uid="{44097026-AEF4-4E2D-8AC3-F9A70AADC305}">
+          <x14:formula1>
+            <xm:f>Hilfstabelle!$M$3:$M$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -882,171 +1047,209 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6097B94-F70E-43DD-B130-B41690572E02}">
-  <dimension ref="A1:I17"/>
+  <sheetPr codeName="Tabelle2"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1056,71 +1259,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78BA4B6-C9EF-4181-912F-B51639101D12}">
+  <sheetPr codeName="Tabelle3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B8:T22"/>
+  <sheetPr codeName="Tabelle4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>